--- a/CentralCities/Data/Description.xlsx
+++ b/CentralCities/Data/Description.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galve\Documents\UH\Summer\Summer2022\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iscot\Documents\GalvezSoriano\Papers\CentralCities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78667C24-2A6B-403C-A9E7-8AC8C48D27CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0529CC-C3BE-406F-BA0C-433600F43217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89B87DBA-10C5-4B24-9F1F-0BCEDE642D4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89B87DBA-10C5-4B24-9F1F-0BCEDE642D4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Before" sheetId="1" r:id="rId1"/>
+    <sheet name="New" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>idcity</t>
   </si>
@@ -584,18 +585,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6B6E81-B4B4-40B1-A68E-A51E75B0330D}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H18"/>
-    </sheetView>
+    <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="58.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -606,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -617,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -628,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -648,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -668,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -688,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -708,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -728,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -748,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -768,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -788,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -808,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -828,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -848,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -868,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -888,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -908,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -928,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -939,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -950,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -961,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -972,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -983,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -994,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>24</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>28</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>31</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>32</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>60</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>63</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>14</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>29</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>30</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>46</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>47</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>49</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>50</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>61</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>62</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>35</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>36</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>38</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>39</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>51</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>52</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>17</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>41</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>42</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>43</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>45</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>54</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>55</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>56</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>57</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>58</v>
       </c>
@@ -2006,7 +2005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>59</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>8</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>10</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>11</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>13</v>
       </c>
@@ -2100,4 +2099,577 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B07ABB-D84E-4AAE-9E54-B90297425DBE}">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1101</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1401</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1501</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1601</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1701</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1801</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2101</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2201</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2301</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2401</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2501</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2801</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2901</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3201</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3801</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5001</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>301</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>302</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>601</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>602</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1901</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1902</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2601</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2602</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3701</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3702</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3901</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3902</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4701</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4702</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4801</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4802</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3301</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3302</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3303</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3401</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3402</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3403</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4301</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4302</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4303</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1001</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1002</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1003</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1004</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3601</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3602</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3603</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3604</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3605</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3606</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>501</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>502</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>503</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>504</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>505</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>506</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>507</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4401</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4402</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4403</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4404</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4405</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4406</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4407</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E69">
+    <sortCondition ref="E2:E69"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>